--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2896566.457113923</v>
+        <v>2884993.515713843</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1546475.847368342</v>
+        <v>1546475.847368341</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3722385.725071565</v>
+        <v>3722385.725071566</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7300202.52078285</v>
+        <v>7300202.520782851</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="V4" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -984,58 +984,58 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5.309829763041574</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,14 +1051,14 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1218,67 +1218,67 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5.309829763041575</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.33498035419292</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8155218883325</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>211.6072823834167</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>82.60836983805547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.00159820879924</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>20.31894315262184</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.8847387377845</v>
       </c>
       <c r="W11" t="n">
-        <v>221.3734489850626</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>163.0037347257886</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>9.47599743086019</v>
       </c>
       <c r="H12" t="n">
-        <v>76.9630832587536</v>
+        <v>49.2533976790463</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>43.81565137148738</v>
@@ -1515,7 +1515,7 @@
         <v>77.90546547112703</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.81517604495392</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.96446044958685</v>
+        <v>14.6023680492689</v>
       </c>
       <c r="C13" t="n">
-        <v>39.37930136627739</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.74795328586191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.56644291421873</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>17.5535282905808</v>
       </c>
       <c r="G13" t="n">
-        <v>8.24003586247539</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.35965277508913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>27.58295519490784</v>
@@ -1588,7 +1588,7 @@
         <v>124.2701235914776</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.6554786042406</v>
       </c>
       <c r="X13" t="n">
         <v>97.84213565668671</v>
@@ -1607,7 +1607,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>225.496690640665</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.6996884400634</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.09291681080717</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.24386845590283</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>111.569451777494</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>111.7753231954806</v>
+        <v>88.82589950319515</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>229.9548995481265</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,16 +1698,16 @@
         <v>5.293011263041365</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>31.90696997349531</v>
@@ -1746,13 +1746,13 @@
         <v>93.02438601908275</v>
       </c>
       <c r="W15" t="n">
-        <v>163.5535640289279</v>
+        <v>229.0265952595994</v>
       </c>
       <c r="X15" t="n">
         <v>65.99678407313496</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>65.90649464696185</v>
       </c>
     </row>
     <row r="16">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.51719024682688</v>
+        <v>37.51719024682697</v>
       </c>
       <c r="S16" t="n">
         <v>84.24039690662974</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.333843070862195</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>69.13821660865779</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>97.38801995236292</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>173.7946255146613</v>
       </c>
       <c r="W17" t="n">
-        <v>195.2833357619394</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>146.9872219155064</v>
+        <v>232.28030570058</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>12.57555069439377</v>
       </c>
       <c r="C18" t="n">
-        <v>18.75086603284217</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>3.687447499927373</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.96538680444766</v>
       </c>
       <c r="S18" t="n">
         <v>17.72553814836425</v>
@@ -1977,16 +1977,16 @@
         <v>46.20709573934803</v>
       </c>
       <c r="U18" t="n">
-        <v>71.98374912550125</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>117.6940112421785</v>
+        <v>78.8429541939517</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>97.73735020544603</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>51.8153522480039</v>
       </c>
       <c r="Y18" t="n">
         <v>51.72506282183079</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>228.776208708007</v>
       </c>
       <c r="C20" t="n">
-        <v>211.315258815534</v>
+        <v>164.1192323815153</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>91.36751678415767</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>55.06243663077177</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>69.13821660865779</v>
       </c>
       <c r="U20" t="n">
-        <v>97.38801995236292</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>195.2833357619394</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>215.7734677229955</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>232.28030570058</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>95.85380736653759</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>3.687447499927373</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>33.08508098364982</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>46.20709573934803</v>
       </c>
       <c r="U21" t="n">
-        <v>71.98374912550125</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>78.8429541939517</v>
       </c>
       <c r="W21" t="n">
-        <v>97.73735020544603</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>51.8153522480039</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>228.776208708007</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>211.315258815534</v>
       </c>
       <c r="D23" t="n">
         <v>200.7254086652094</v>
       </c>
       <c r="E23" t="n">
-        <v>227.9727371167882</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>252.9184127862379</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>259.898862257379</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>185.5171691602936</v>
       </c>
       <c r="I23" t="n">
-        <v>4.846983771073604</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>215.7734677229955</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.28030570058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.57555069439377</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>18.75086603284217</v>
@@ -2403,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.687447499927373</v>
+        <v>43.37967985803066</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>17.72553814836425</v>
@@ -2454,7 +2454,7 @@
         <v>71.98374912550125</v>
       </c>
       <c r="V24" t="n">
-        <v>78.8429541939517</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>159.7682096661443</v>
+        <v>51.72506282183079</v>
       </c>
     </row>
     <row r="25">
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>230.3297627613807</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>238.5164442725005</v>
+        <v>246.9872410626349</v>
       </c>
       <c r="F26" t="n">
         <v>271.9329167320845</v>
@@ -2573,7 +2573,7 @@
         <v>204.5316731061403</v>
       </c>
       <c r="I26" t="n">
-        <v>75.53276056077905</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.92598893152282</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>74.07694057661848</v>
       </c>
       <c r="T26" t="n">
         <v>88.1527205545045</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>208.3887970238841</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>37.76536997868888</v>
       </c>
       <c r="D27" t="n">
-        <v>12.50193655501189</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>22.70195144577409</v>
       </c>
       <c r="F27" t="n">
         <v>10.12608338375702</v>
@@ -2649,13 +2649,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>36.74004209421096</v>
       </c>
       <c r="T27" t="n">
-        <v>117.8045065312424</v>
+        <v>65.22159968519475</v>
       </c>
       <c r="U27" t="n">
-        <v>90.99825307134796</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>97.85745813979841</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>116.7518541512927</v>
+        <v>180.6657797549358</v>
       </c>
       <c r="X27" t="n">
         <v>70.82985619385062</v>
@@ -2722,7 +2722,7 @@
         <v>11.49083363694231</v>
       </c>
       <c r="F28" t="n">
-        <v>10.47791901330439</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>33.0478503488319</v>
@@ -2761,7 +2761,7 @@
         <v>42.35026236754263</v>
       </c>
       <c r="S28" t="n">
-        <v>67.22275231716381</v>
+        <v>89.0734690273454</v>
       </c>
       <c r="T28" t="n">
         <v>93.00246041865464</v>
@@ -2773,7 +2773,7 @@
         <v>117.1945143142011</v>
       </c>
       <c r="W28" t="n">
-        <v>151.5798693269641</v>
+        <v>140.2070716300869</v>
       </c>
       <c r="X28" t="n">
         <v>90.76652637941029</v>
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>229.4132366083077</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>133.1765352143331</v>
       </c>
       <c r="E29" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>279.4430823524353</v>
       </c>
       <c r="H29" t="n">
-        <v>203.6151469530673</v>
+        <v>203.6151469530674</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.16041442354549</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2361944014315</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>115.4859977451366</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>191.8926033074351</v>
       </c>
       <c r="W29" t="n">
-        <v>87.86771146361046</v>
+        <v>213.3813135547132</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>233.8714455157693</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>250.3782834933538</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.67352848716749</v>
+        <v>30.67352848716757</v>
       </c>
       <c r="C30" t="n">
-        <v>36.84884382561589</v>
+        <v>36.84884382561597</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>11.58541040193899</v>
       </c>
       <c r="E30" t="n">
-        <v>93.03156012092835</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>1.483862000510868</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2919,25 +2919,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>35.82351594113797</v>
+        <v>35.82351594113806</v>
       </c>
       <c r="T30" t="n">
-        <v>64.30507353212175</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>90.08172691827497</v>
+        <v>90.08172691827505</v>
       </c>
       <c r="V30" t="n">
-        <v>96.94093198672542</v>
+        <v>96.9409319867255</v>
       </c>
       <c r="W30" t="n">
-        <v>115.8353279982198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>75.38704294379204</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>69.82304061460459</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.97232501923745</v>
+        <v>43.97232501923753</v>
       </c>
       <c r="C31" t="n">
-        <v>31.38716593592798</v>
+        <v>31.38716593592807</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7558178555125</v>
+        <v>12.75581785551259</v>
       </c>
       <c r="E31" t="n">
-        <v>10.57430748386932</v>
+        <v>10.5743074838694</v>
       </c>
       <c r="F31" t="n">
-        <v>9.561392860231393</v>
+        <v>9.561392860231479</v>
       </c>
       <c r="G31" t="n">
-        <v>32.13132419575891</v>
+        <v>32.13132419575899</v>
       </c>
       <c r="H31" t="n">
-        <v>26.36751734473972</v>
+        <v>26.36751734473981</v>
       </c>
       <c r="I31" t="n">
-        <v>19.59081976455844</v>
+        <v>19.59081976455852</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.43373621446963</v>
+        <v>41.43373621446964</v>
       </c>
       <c r="S31" t="n">
-        <v>88.1569428742724</v>
+        <v>88.15694287427249</v>
       </c>
       <c r="T31" t="n">
-        <v>92.08593426558164</v>
+        <v>92.08593426558173</v>
       </c>
       <c r="U31" t="n">
-        <v>150.459374193791</v>
+        <v>150.4593741937911</v>
       </c>
       <c r="V31" t="n">
-        <v>116.2779881611281</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W31" t="n">
-        <v>150.6633431738911</v>
+        <v>150.6633431738912</v>
       </c>
       <c r="X31" t="n">
-        <v>89.8500002263373</v>
+        <v>89.85000022633739</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.72499818939494</v>
+        <v>82.72499818939502</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>142.1770422068762</v>
       </c>
       <c r="D32" t="n">
-        <v>131.5871920565516</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>158.8345205081304</v>
@@ -3044,7 +3044,7 @@
         <v>192.2068879510037</v>
       </c>
       <c r="H32" t="n">
-        <v>116.3789525516358</v>
+        <v>100.2930998389174</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>28.24980334370514</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>104.6564089060035</v>
       </c>
       <c r="W32" t="n">
         <v>126.1451191532817</v>
       </c>
       <c r="X32" t="n">
-        <v>103.618615251071</v>
+        <v>146.6352511143377</v>
       </c>
       <c r="Y32" t="n">
         <v>163.1420890919222</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>47.31215150097194</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9796159656094</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3266,19 +3266,19 @@
         <v>159.6379920993492</v>
       </c>
       <c r="C35" t="n">
-        <v>142.1770422068762</v>
+        <v>11.35884874460735</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>158.8345205081304</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>183.7801961775801</v>
       </c>
       <c r="G35" t="n">
-        <v>192.2068879510037</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>116.3789525516358</v>
@@ -3323,16 +3323,16 @@
         <v>28.24980334370514</v>
       </c>
       <c r="V35" t="n">
-        <v>104.6564089060035</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>126.1451191532817</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>146.6352511143377</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.18664470971514</v>
+        <v>163.1420890919222</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>135.6381620797218</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>9.704737585293913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>223.2820313885178</v>
+        <v>28.59913359678825</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.9506528811929</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C38" t="n">
-        <v>142.1770422068762</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>131.5871920565516</v>
       </c>
       <c r="E38" t="n">
         <v>158.8345205081304</v>
       </c>
       <c r="F38" t="n">
-        <v>183.7801961775801</v>
+        <v>41.76999964104298</v>
       </c>
       <c r="G38" t="n">
         <v>192.2068879510037</v>
       </c>
       <c r="H38" t="n">
-        <v>116.3789525516358</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>104.6564089060035</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>146.6352511143377</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.56439358896057</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>2.845532516843463</v>
       </c>
       <c r="V39" t="n">
-        <v>9.704737585293913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>36.03179352998047</v>
+        <v>28.59913359678825</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,20 +3740,20 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>207.3438396043886</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G42" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.44033732621018</v>
+        <v>57.44033732621021</v>
       </c>
       <c r="T42" t="n">
         <v>85.92189491719397</v>
@@ -3904,19 +3904,19 @@
         <v>34.37263924058472</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>47.98433872981194</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T43" t="n">
         <v>113.7027556506539</v>
       </c>
       <c r="U43" t="n">
-        <v>106.3953509833599</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V43" t="n">
-        <v>137.8948095462003</v>
+        <v>54.2563978650208</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>104.3418195744672</v>
@@ -3983,67 +3983,67 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="Y44" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.77082018232183</v>
+        <v>65.11555742330471</v>
       </c>
       <c r="C45" t="n">
-        <v>71.29087276175316</v>
+        <v>71.29087276175311</v>
       </c>
       <c r="D45" t="n">
-        <v>46.02743933807618</v>
+        <v>46.02743933807612</v>
       </c>
       <c r="E45" t="n">
-        <v>56.22745422883837</v>
+        <v>56.22745422883831</v>
       </c>
       <c r="F45" t="n">
-        <v>43.6515861668213</v>
+        <v>43.65158616682125</v>
       </c>
       <c r="G45" t="n">
-        <v>35.92589093664806</v>
+        <v>35.925890936648</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>70.26554487727525</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>98.74710246825903</v>
+        <v>2.284949181689413</v>
       </c>
       <c r="U45" t="n">
         <v>124.5237558544122</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>131.3829609228627</v>
       </c>
       <c r="W45" t="n">
         <v>150.277356934357</v>
       </c>
       <c r="X45" t="n">
-        <v>104.3553589769149</v>
+        <v>104.3553589769148</v>
       </c>
       <c r="Y45" t="n">
-        <v>104.2650695507418</v>
+        <v>104.2650695507417</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.57335313189618</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>75.87576515060685</v>
       </c>
       <c r="S46" t="n">
-        <v>122.5989718104097</v>
+        <v>40.59833059766782</v>
       </c>
       <c r="T46" t="n">
-        <v>126.5279632017189</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>184.9014031299283</v>
       </c>
       <c r="V46" t="n">
-        <v>42.23286389225598</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>185.1053721100284</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>124.2920291624745</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>117.1670271255322</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
         <v>14.44108515774386</v>
@@ -4337,13 +4337,13 @@
         <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="N2" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4352,28 +4352,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F3" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G3" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
         <v>1.304216312122629</v>
@@ -4413,19 +4413,19 @@
         <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N3" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O3" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="P3" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
@@ -4443,16 +4443,16 @@
         <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4498,40 +4498,40 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T4" t="n">
-        <v>17.80975218218115</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>10.86425143297768</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N5" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4586,31 +4586,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>22.14071855973305</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S6" t="n">
-        <v>22.14071855973305</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T6" t="n">
-        <v>22.14071855973305</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U6" t="n">
-        <v>22.14071855973305</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V6" t="n">
-        <v>22.14071855973305</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D7" t="n">
         <v>7.495584408540386</v>
@@ -4714,13 +4714,13 @@
         <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,7 +4729,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,13 +4887,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>15.19521781052957</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>15.19521781052957</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>8.2497170613261</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4972,7 +4972,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
         <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="V10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="W10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>476.4746494345317</v>
+        <v>331.8305286924228</v>
       </c>
       <c r="C11" t="n">
-        <v>476.4746494345317</v>
+        <v>331.8305286924228</v>
       </c>
       <c r="D11" t="n">
-        <v>476.4746494345317</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="E11" t="n">
-        <v>233.0258727904316</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="F11" t="n">
-        <v>233.0258727904316</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="G11" t="n">
-        <v>233.0258727904316</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="U11" t="n">
-        <v>943.5329705079879</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="V11" t="n">
-        <v>943.5329705079879</v>
+        <v>739.929542433279</v>
       </c>
       <c r="W11" t="n">
-        <v>719.9234260786318</v>
+        <v>739.929542433279</v>
       </c>
       <c r="X11" t="n">
-        <v>719.9234260786318</v>
+        <v>575.2793053365228</v>
       </c>
       <c r="Y11" t="n">
-        <v>476.4746494345317</v>
+        <v>575.2793053365228</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219.1163543849111</v>
+        <v>191.1267729912673</v>
       </c>
       <c r="C12" t="n">
-        <v>173.8224359445421</v>
+        <v>145.8328545508983</v>
       </c>
       <c r="D12" t="n">
-        <v>154.0471371240488</v>
+        <v>126.0575557304051</v>
       </c>
       <c r="E12" t="n">
-        <v>123.9687929593513</v>
+        <v>95.9792115657076</v>
       </c>
       <c r="F12" t="n">
-        <v>106.5933458269943</v>
+        <v>78.60376443335059</v>
       </c>
       <c r="G12" t="n">
-        <v>97.02163125036788</v>
+        <v>69.03204985672414</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>818.6293923549488</v>
+        <v>919.7989218020631</v>
       </c>
       <c r="T12" t="n">
-        <v>745.6019085544729</v>
+        <v>846.7714380015872</v>
       </c>
       <c r="U12" t="n">
-        <v>646.53740113162</v>
+        <v>747.7069305787343</v>
       </c>
       <c r="V12" t="n">
-        <v>540.5444037406353</v>
+        <v>641.7139331877496</v>
       </c>
       <c r="W12" t="n">
-        <v>415.4661578531917</v>
+        <v>516.635687300306</v>
       </c>
       <c r="X12" t="n">
-        <v>336.7737684884169</v>
+        <v>437.9432979355312</v>
       </c>
       <c r="Y12" t="n">
-        <v>258.1725805642211</v>
+        <v>230.1829991705773</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187.3921225944665</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="C13" t="n">
-        <v>147.6150505073176</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="D13" t="n">
-        <v>126.6575219357399</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9035391941048</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="F13" t="n">
-        <v>90.17270253695249</v>
+        <v>47.14271401416003</v>
       </c>
       <c r="G13" t="n">
-        <v>81.84943398899755</v>
+        <v>47.14271401416003</v>
       </c>
       <c r="H13" t="n">
         <v>47.14271401416003</v>
@@ -5236,13 +5236,13 @@
         <v>430.3453849439795</v>
       </c>
       <c r="W13" t="n">
-        <v>430.3453849439795</v>
+        <v>270.087325747777</v>
       </c>
       <c r="X13" t="n">
-        <v>331.5149448867202</v>
+        <v>171.2568856905177</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.8814765839481</v>
+        <v>79.62341738774559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>318.4694048079182</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="U14" t="n">
-        <v>851.3607395737736</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="V14" t="n">
-        <v>738.4563727096518</v>
+        <v>794.1958577632572</v>
       </c>
       <c r="W14" t="n">
-        <v>738.4563727096518</v>
+        <v>794.1958577632572</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>561.9181814520183</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>561.9181814520183</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.173225301968</v>
+        <v>197.0574028242185</v>
       </c>
       <c r="C15" t="n">
-        <v>189.908277970682</v>
+        <v>163.7924554929324</v>
       </c>
       <c r="D15" t="n">
-        <v>182.1619502592716</v>
+        <v>156.0461277815221</v>
       </c>
       <c r="E15" t="n">
-        <v>164.112577203657</v>
+        <v>137.9967547259075</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>931.827892911146</v>
+        <v>830.6583634640317</v>
       </c>
       <c r="T15" t="n">
-        <v>870.829380219753</v>
+        <v>769.6598507726387</v>
       </c>
       <c r="U15" t="n">
-        <v>783.7938439059831</v>
+        <v>682.6243144588688</v>
       </c>
       <c r="V15" t="n">
-        <v>689.8298176240813</v>
+        <v>588.660288176967</v>
       </c>
       <c r="W15" t="n">
-        <v>524.624197392841</v>
+        <v>357.3202929652505</v>
       </c>
       <c r="X15" t="n">
-        <v>457.9607791371491</v>
+        <v>290.6568747095586</v>
       </c>
       <c r="Y15" t="n">
-        <v>250.2004803721952</v>
+        <v>224.0846578944456</v>
       </c>
     </row>
     <row r="16">
@@ -5425,7 +5425,7 @@
         <v>86.29126775882798</v>
       </c>
       <c r="G16" t="n">
-        <v>57.79149177083173</v>
+        <v>57.79149177083175</v>
       </c>
       <c r="H16" t="n">
         <v>35.11374290507714</v>
@@ -5449,7 +5449,7 @@
         <v>706.8939673376497</v>
       </c>
       <c r="O16" t="n">
-        <v>869.611683091588</v>
+        <v>775.2949264194908</v>
       </c>
       <c r="P16" t="n">
         <v>910.9791392107745</v>
@@ -5458,13 +5458,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R16" t="n">
-        <v>926.1610037461646</v>
+        <v>926.1610037461645</v>
       </c>
       <c r="S16" t="n">
-        <v>841.0696937394679</v>
+        <v>841.0696937394678</v>
       </c>
       <c r="T16" t="n">
-        <v>752.0097055597315</v>
+        <v>752.0097055597314</v>
       </c>
       <c r="U16" t="n">
         <v>603.9866467454401</v>
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.1209997142053</v>
+        <v>455.5087199878035</v>
       </c>
       <c r="C17" t="n">
-        <v>450.1209997142053</v>
+        <v>455.5087199878035</v>
       </c>
       <c r="D17" t="n">
-        <v>450.1209997142053</v>
+        <v>455.5087199878035</v>
       </c>
       <c r="E17" t="n">
         <v>450.1209997142053</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>894.2205730776485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>795.8488357520293</v>
+        <v>865.6854181850171</v>
       </c>
       <c r="V17" t="n">
-        <v>795.8488357520293</v>
+        <v>690.1352914025308</v>
       </c>
       <c r="W17" t="n">
-        <v>598.5929410429997</v>
+        <v>690.1352914025308</v>
       </c>
       <c r="X17" t="n">
-        <v>598.5929410429997</v>
+        <v>690.1352914025308</v>
       </c>
       <c r="Y17" t="n">
-        <v>450.1209997142053</v>
+        <v>455.5087199878035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>191.6346485886634</v>
+        <v>287.7584959785543</v>
       </c>
       <c r="C18" t="n">
-        <v>172.6943798686208</v>
+        <v>113.3054666974273</v>
       </c>
       <c r="D18" t="n">
-        <v>23.75997020736952</v>
+        <v>113.3054666974273</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>876.2133304556386</v>
       </c>
       <c r="S18" t="n">
-        <v>946.1525715223895</v>
+        <v>858.3087464673919</v>
       </c>
       <c r="T18" t="n">
-        <v>899.47873744224</v>
+        <v>811.6349123872424</v>
       </c>
       <c r="U18" t="n">
-        <v>826.7678797397135</v>
+        <v>583.4112941236314</v>
       </c>
       <c r="V18" t="n">
-        <v>707.8850401011493</v>
+        <v>503.7719464529731</v>
       </c>
       <c r="W18" t="n">
-        <v>464.4362634570493</v>
+        <v>405.0473502858558</v>
       </c>
       <c r="X18" t="n">
-        <v>256.5847632515164</v>
+        <v>352.7086106414075</v>
       </c>
       <c r="Y18" t="n">
-        <v>204.337225047647</v>
+        <v>300.461072437538</v>
       </c>
     </row>
     <row r="19">
@@ -5671,22 +5671,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>79.27361142062551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>209.6448711389203</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>389.3770527725521</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>468.9150811983588</v>
+        <v>166.7731942742766</v>
       </c>
       <c r="N19" t="n">
-        <v>512.6059318537951</v>
+        <v>362.8821015556317</v>
       </c>
       <c r="O19" t="n">
-        <v>689.3632651146132</v>
+        <v>539.6394348164498</v>
       </c>
       <c r="P19" t="n">
         <v>689.3632651146132</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.0213204836386</v>
+        <v>428.5069221598838</v>
       </c>
       <c r="C20" t="n">
-        <v>111.5715641043114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>111.5715641043114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>111.5715641043114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>111.5715641043114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>111.5715641043114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5750,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>908.4385326512707</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>838.601950218283</v>
+        <v>894.2205730776485</v>
       </c>
       <c r="U20" t="n">
-        <v>740.2302128926639</v>
+        <v>894.2205730776485</v>
       </c>
       <c r="V20" t="n">
-        <v>740.2302128926639</v>
+        <v>894.2205730776485</v>
       </c>
       <c r="W20" t="n">
-        <v>542.9743181836341</v>
+        <v>894.2205730776485</v>
       </c>
       <c r="X20" t="n">
-        <v>325.0213204836386</v>
+        <v>894.2205730776485</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.0213204836386</v>
+        <v>659.5940016629212</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.1150815946366</v>
+        <v>230.8781405565692</v>
       </c>
       <c r="C21" t="n">
-        <v>356.6620523135097</v>
+        <v>56.42511127544222</v>
       </c>
       <c r="D21" t="n">
-        <v>259.8400246705424</v>
+        <v>56.42511127544222</v>
       </c>
       <c r="E21" t="n">
-        <v>256.1153302261713</v>
+        <v>52.70041683107114</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>52.70041683107114</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5862,19 @@
         <v>899.47873744224</v>
       </c>
       <c r="U21" t="n">
-        <v>826.7678797397135</v>
+        <v>671.255119178629</v>
       </c>
       <c r="V21" t="n">
-        <v>747.1285320690553</v>
+        <v>591.6157715079707</v>
       </c>
       <c r="W21" t="n">
-        <v>648.4039359019381</v>
+        <v>348.1669948638707</v>
       </c>
       <c r="X21" t="n">
-        <v>596.0651962574897</v>
+        <v>295.8282552194223</v>
       </c>
       <c r="Y21" t="n">
-        <v>543.8176580536202</v>
+        <v>243.5807170155528</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.74065429191997</v>
+        <v>264.3169108812015</v>
       </c>
       <c r="C22" t="n">
-        <v>43.31723192509748</v>
+        <v>250.893488514379</v>
       </c>
       <c r="D22" t="n">
-        <v>43.31723192509748</v>
+        <v>256.1822268522677</v>
       </c>
       <c r="E22" t="n">
-        <v>43.31723192509748</v>
+        <v>263.630660458083</v>
       </c>
       <c r="F22" t="n">
-        <v>43.31723192509748</v>
+        <v>263.630660458083</v>
       </c>
       <c r="G22" t="n">
-        <v>29.14213454834476</v>
+        <v>249.4555630813303</v>
       </c>
       <c r="H22" t="n">
-        <v>20.78906429383365</v>
+        <v>241.1024928268192</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>239.5945716431982</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>299.587039953611</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>299.587039953611</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>479.3192215872429</v>
       </c>
       <c r="M22" t="n">
-        <v>238.2013629360667</v>
+        <v>670.9253164053839</v>
       </c>
       <c r="N22" t="n">
-        <v>434.3102702174218</v>
+        <v>722.8764147708321</v>
       </c>
       <c r="O22" t="n">
-        <v>611.0676034782399</v>
+        <v>747.2156914057314</v>
       </c>
       <c r="P22" t="n">
-        <v>756.4808989213547</v>
+        <v>896.9395217038948</v>
       </c>
       <c r="Q22" t="n">
-        <v>756.4808989213547</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>732.9094257681264</v>
+        <v>940.485682357408</v>
       </c>
       <c r="S22" t="n">
-        <v>662.1427943726732</v>
+        <v>869.7190509619547</v>
       </c>
       <c r="T22" t="n">
-        <v>587.4074848041803</v>
+        <v>794.9837413934619</v>
       </c>
       <c r="U22" t="n">
-        <v>453.7091046011325</v>
+        <v>661.2853611904141</v>
       </c>
       <c r="V22" t="n">
-        <v>354.5373769563301</v>
+        <v>562.1136335456116</v>
       </c>
       <c r="W22" t="n">
-        <v>220.6329674804539</v>
+        <v>428.2092240697354</v>
       </c>
       <c r="X22" t="n">
-        <v>148.1561771435209</v>
+        <v>355.7324337328025</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.87635856107525</v>
+        <v>290.4526151503568</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>468.9645384145867</v>
+        <v>1152.631187032347</v>
       </c>
       <c r="C23" t="n">
-        <v>468.9645384145867</v>
+        <v>939.1814306530196</v>
       </c>
       <c r="D23" t="n">
-        <v>266.2116003689206</v>
+        <v>736.4284926073535</v>
       </c>
       <c r="E23" t="n">
-        <v>35.93610833176075</v>
+        <v>736.4284926073535</v>
       </c>
       <c r="F23" t="n">
-        <v>35.93610833176075</v>
+        <v>480.9553483788304</v>
       </c>
       <c r="G23" t="n">
-        <v>35.93610833176075</v>
+        <v>218.4312450885486</v>
       </c>
       <c r="H23" t="n">
-        <v>35.93610833176075</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I23" t="n">
         <v>31.0401651286561</v>
@@ -5993,22 +5993,22 @@
         <v>274.6434312044309</v>
       </c>
       <c r="L23" t="n">
-        <v>585.486988276125</v>
+        <v>454.7192827890894</v>
       </c>
       <c r="M23" t="n">
-        <v>954.880672164948</v>
+        <v>798.4149856748481</v>
       </c>
       <c r="N23" t="n">
-        <v>1313.153250998106</v>
+        <v>1004.269507882088</v>
       </c>
       <c r="O23" t="n">
-        <v>1462.348201140754</v>
+        <v>1305.882514650654</v>
       </c>
       <c r="P23" t="n">
-        <v>1552.008256432805</v>
+        <v>1547.960626568624</v>
       </c>
       <c r="Q23" t="n">
-        <v>1552.008256432805</v>
+        <v>1547.960626568624</v>
       </c>
       <c r="R23" t="n">
         <v>1552.008256432805</v>
@@ -6029,10 +6029,10 @@
         <v>1152.631187032347</v>
       </c>
       <c r="X23" t="n">
-        <v>934.6781893323514</v>
+        <v>1152.631187032347</v>
       </c>
       <c r="Y23" t="n">
-        <v>700.0516179176241</v>
+        <v>1152.631187032347</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>543.3934090716192</v>
+        <v>240.3328502642689</v>
       </c>
       <c r="C24" t="n">
-        <v>524.4531403515766</v>
+        <v>221.3925815442263</v>
       </c>
       <c r="D24" t="n">
-        <v>524.4531403515766</v>
+        <v>221.3925815442263</v>
       </c>
       <c r="E24" t="n">
-        <v>520.7284459072056</v>
+        <v>177.5747231017711</v>
       </c>
       <c r="F24" t="n">
-        <v>374.1938879340905</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G24" t="n">
-        <v>235.463062516706</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H24" t="n">
-        <v>122.0939269242853</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I24" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J24" t="n">
         <v>31.0401651286561</v>
@@ -6090,28 +6090,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R24" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S24" t="n">
-        <v>1534.103672444558</v>
+        <v>1432.934142997444</v>
       </c>
       <c r="T24" t="n">
-        <v>1331.917077803324</v>
+        <v>1230.74754835621</v>
       </c>
       <c r="U24" t="n">
-        <v>1259.206220100798</v>
+        <v>1158.036690653684</v>
       </c>
       <c r="V24" t="n">
-        <v>1179.566872430139</v>
+        <v>922.8845824219409</v>
       </c>
       <c r="W24" t="n">
-        <v>925.3295157019379</v>
+        <v>668.6472256937393</v>
       </c>
       <c r="X24" t="n">
-        <v>717.4780154964051</v>
+        <v>460.7957254882065</v>
       </c>
       <c r="Y24" t="n">
-        <v>556.0959855306028</v>
+        <v>408.548187284337</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.49967631036334</v>
+        <v>47.31128528344249</v>
       </c>
       <c r="C25" t="n">
-        <v>55.07625394354086</v>
+        <v>33.88786291661999</v>
       </c>
       <c r="D25" t="n">
-        <v>55.07625394354086</v>
+        <v>39.1766012545086</v>
       </c>
       <c r="E25" t="n">
-        <v>55.07625394354086</v>
+        <v>46.62503486032395</v>
       </c>
       <c r="F25" t="n">
         <v>55.07625394354086</v>
@@ -6148,49 +6148,49 @@
         <v>91.03263343906889</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0300530927848</v>
+        <v>221.4038931573637</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3441781004978</v>
+        <v>401.1360747909955</v>
       </c>
       <c r="M25" t="n">
-        <v>178.53221629272</v>
+        <v>592.7421696091365</v>
       </c>
       <c r="N25" t="n">
-        <v>374.6411235740751</v>
+        <v>636.4330202645727</v>
       </c>
       <c r="O25" t="n">
-        <v>551.3984568348932</v>
+        <v>679.9338961061358</v>
       </c>
       <c r="P25" t="n">
-        <v>701.1222871330566</v>
+        <v>679.9338961061358</v>
       </c>
       <c r="Q25" t="n">
-        <v>768.239920939798</v>
+        <v>747.0515299128772</v>
       </c>
       <c r="R25" t="n">
-        <v>744.6684477865698</v>
+        <v>723.480056759649</v>
       </c>
       <c r="S25" t="n">
-        <v>673.9018163911165</v>
+        <v>652.7134253641957</v>
       </c>
       <c r="T25" t="n">
-        <v>599.1665068226237</v>
+        <v>577.9781157957028</v>
       </c>
       <c r="U25" t="n">
-        <v>465.4681266195759</v>
+        <v>444.279735592655</v>
       </c>
       <c r="V25" t="n">
-        <v>366.2963989747735</v>
+        <v>345.1080079478526</v>
       </c>
       <c r="W25" t="n">
-        <v>232.3919894988973</v>
+        <v>211.2035984719764</v>
       </c>
       <c r="X25" t="n">
-        <v>159.9151991619643</v>
+        <v>138.7268081350435</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.63538057951862</v>
+        <v>73.44698955259777</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1345.386797389659</v>
+        <v>1044.991114023977</v>
       </c>
       <c r="C26" t="n">
-        <v>1112.730471368063</v>
+        <v>1044.991114023977</v>
       </c>
       <c r="D26" t="n">
-        <v>1112.730471368063</v>
+        <v>1044.991114023977</v>
       </c>
       <c r="E26" t="n">
-        <v>871.8047700827087</v>
+        <v>795.5090523445481</v>
       </c>
       <c r="F26" t="n">
-        <v>597.1250562119162</v>
+        <v>520.8293384737556</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9335324689787</v>
+        <v>237.637814730818</v>
       </c>
       <c r="H26" t="n">
-        <v>107.3358828668168</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I26" t="n">
         <v>31.0401651286561</v>
@@ -6230,16 +6230,16 @@
         <v>389.4127700175733</v>
       </c>
       <c r="L26" t="n">
-        <v>703.0823193217625</v>
+        <v>569.4886216022319</v>
       </c>
       <c r="M26" t="n">
-        <v>920.0579465846666</v>
+        <v>850.0021255742049</v>
       </c>
       <c r="N26" t="n">
-        <v>1189.450345500975</v>
+        <v>1055.856647781444</v>
       </c>
       <c r="O26" t="n">
-        <v>1338.645295643623</v>
+        <v>1205.051597924092</v>
       </c>
       <c r="P26" t="n">
         <v>1428.305350935674</v>
@@ -6248,28 +6248,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R26" t="n">
-        <v>1552.008256432805</v>
+        <v>1536.931499936317</v>
       </c>
       <c r="S26" t="n">
-        <v>1552.008256432805</v>
+        <v>1462.106307434683</v>
       </c>
       <c r="T26" t="n">
-        <v>1462.965104357548</v>
+        <v>1373.063155359426</v>
       </c>
       <c r="U26" t="n">
-        <v>1345.386797389659</v>
+        <v>1255.484848391537</v>
       </c>
       <c r="V26" t="n">
-        <v>1345.386797389659</v>
+        <v>1255.484848391537</v>
       </c>
       <c r="W26" t="n">
-        <v>1345.386797389659</v>
+        <v>1044.991114023977</v>
       </c>
       <c r="X26" t="n">
-        <v>1345.386797389659</v>
+        <v>1044.991114023977</v>
       </c>
       <c r="Y26" t="n">
-        <v>1345.386797389659</v>
+        <v>1044.991114023977</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>639.68719622178</v>
+        <v>390.76600236333</v>
       </c>
       <c r="C27" t="n">
-        <v>465.234166940653</v>
+        <v>352.619164001018</v>
       </c>
       <c r="D27" t="n">
-        <v>452.6059481982168</v>
+        <v>203.6847543397668</v>
       </c>
       <c r="E27" t="n">
-        <v>293.3684931927613</v>
+        <v>180.7534902531263</v>
       </c>
       <c r="F27" t="n">
-        <v>283.1401261384613</v>
+        <v>170.5251231988263</v>
       </c>
       <c r="G27" t="n">
-        <v>144.4093007210768</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="H27" t="n">
-        <v>31.0401651286561</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="I27" t="n">
-        <v>31.0401651286561</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="J27" t="n">
         <v>31.0401651286561</v>
@@ -6327,28 +6327,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R27" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S27" t="n">
-        <v>1378.590911883474</v>
+        <v>1413.727573355175</v>
       </c>
       <c r="T27" t="n">
-        <v>1259.596460841815</v>
+        <v>1347.847169632756</v>
       </c>
       <c r="U27" t="n">
-        <v>1167.679033497019</v>
+        <v>1119.623551369145</v>
       </c>
       <c r="V27" t="n">
-        <v>1068.833116184091</v>
+        <v>884.471443137402</v>
       </c>
       <c r="W27" t="n">
-        <v>950.9019503747047</v>
+        <v>701.9807565162548</v>
       </c>
       <c r="X27" t="n">
-        <v>879.3566410879869</v>
+        <v>630.435447229537</v>
       </c>
       <c r="Y27" t="n">
-        <v>807.902533241848</v>
+        <v>558.9813393833981</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4803160433311</v>
+        <v>690.8965594642357</v>
       </c>
       <c r="C28" t="n">
-        <v>668.8503240342392</v>
+        <v>658.2665674551438</v>
       </c>
       <c r="D28" t="n">
-        <v>655.0398755407185</v>
+        <v>644.4561189616231</v>
       </c>
       <c r="E28" t="n">
-        <v>643.4329728771404</v>
+        <v>632.849216298045</v>
       </c>
       <c r="F28" t="n">
         <v>632.849216298045</v>
@@ -6409,25 +6409,25 @@
         <v>1509.230213637307</v>
       </c>
       <c r="S28" t="n">
-        <v>1441.32844361997</v>
+        <v>1419.257012599585</v>
       </c>
       <c r="T28" t="n">
-        <v>1347.386564409208</v>
+        <v>1325.315133388822</v>
       </c>
       <c r="U28" t="n">
-        <v>1194.481614563891</v>
+        <v>1172.410183543505</v>
       </c>
       <c r="V28" t="n">
-        <v>1076.103317276819</v>
+        <v>1054.031886256433</v>
       </c>
       <c r="W28" t="n">
-        <v>922.9923381586732</v>
+        <v>912.4085815795779</v>
       </c>
       <c r="X28" t="n">
-        <v>831.3089781794708</v>
+        <v>820.7252216003756</v>
       </c>
       <c r="Y28" t="n">
-        <v>746.8225899547558</v>
+        <v>736.2388333756604</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>990.7527803306243</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="C29" t="n">
-        <v>759.0222383020307</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="D29" t="n">
-        <v>759.0222383020307</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="E29" t="n">
-        <v>510.4659606156045</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="F29" t="n">
-        <v>236.712030737815</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="G29" t="n">
-        <v>236.712030737815</v>
+        <v>236.7120307378151</v>
       </c>
       <c r="H29" t="n">
         <v>31.0401651286561</v>
@@ -6464,22 +6464,22 @@
         <v>153.7114272786625</v>
       </c>
       <c r="K29" t="n">
-        <v>256.7264331895849</v>
+        <v>316.6348663324848</v>
       </c>
       <c r="L29" t="n">
-        <v>436.8022847742435</v>
+        <v>496.7107179171433</v>
       </c>
       <c r="M29" t="n">
-        <v>703.7955529576482</v>
+        <v>848.1874037911202</v>
       </c>
       <c r="N29" t="n">
-        <v>1044.15113377596</v>
+        <v>1054.04192599836</v>
       </c>
       <c r="O29" t="n">
-        <v>1327.847142529681</v>
+        <v>1203.236876141008</v>
       </c>
       <c r="P29" t="n">
-        <v>1552.008256432805</v>
+        <v>1427.397990044132</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.008256432805</v>
@@ -6488,25 +6488,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S29" t="n">
-        <v>1478.108847924173</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T29" t="n">
-        <v>1389.991479841919</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U29" t="n">
-        <v>1273.338956867034</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="V29" t="n">
-        <v>1079.508044435281</v>
+        <v>1358.177344001052</v>
       </c>
       <c r="W29" t="n">
-        <v>990.7527803306243</v>
+        <v>1142.640663642756</v>
       </c>
       <c r="X29" t="n">
-        <v>990.7527803306243</v>
+        <v>906.4068802934941</v>
       </c>
       <c r="Y29" t="n">
-        <v>990.7527803306243</v>
+        <v>653.4995232295003</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>597.1864180519241</v>
+        <v>591.6574151195854</v>
       </c>
       <c r="C30" t="n">
-        <v>559.9653636826151</v>
+        <v>554.4363607502763</v>
       </c>
       <c r="D30" t="n">
-        <v>411.0309540213639</v>
+        <v>542.733926000843</v>
       </c>
       <c r="E30" t="n">
-        <v>317.0596811719413</v>
+        <v>383.4964709953875</v>
       </c>
       <c r="F30" t="n">
-        <v>170.5251231988263</v>
+        <v>236.9619130222725</v>
       </c>
       <c r="G30" t="n">
-        <v>31.79429778144181</v>
+        <v>235.463062516706</v>
       </c>
       <c r="H30" t="n">
-        <v>31.79429778144181</v>
+        <v>122.0939269242853</v>
       </c>
       <c r="I30" t="n">
         <v>31.79429778144181</v>
@@ -6567,25 +6567,25 @@
         <v>1450.838726985691</v>
       </c>
       <c r="S30" t="n">
-        <v>1414.653357348178</v>
+        <v>1414.653357348177</v>
       </c>
       <c r="T30" t="n">
-        <v>1349.698737618762</v>
+        <v>1212.466762706943</v>
       </c>
       <c r="U30" t="n">
-        <v>1258.707094266969</v>
+        <v>1121.47511935515</v>
       </c>
       <c r="V30" t="n">
-        <v>1160.786960947044</v>
+        <v>1023.554986035226</v>
       </c>
       <c r="W30" t="n">
-        <v>1043.781579130661</v>
+        <v>769.3176293070239</v>
       </c>
       <c r="X30" t="n">
-        <v>835.9300789251279</v>
+        <v>693.1691010809714</v>
       </c>
       <c r="Y30" t="n">
-        <v>628.169780160174</v>
+        <v>622.6407772278354</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.8465746646141</v>
+        <v>687.7409409599727</v>
       </c>
       <c r="C31" t="n">
-        <v>143.1423666485252</v>
+        <v>656.0367329438837</v>
       </c>
       <c r="D31" t="n">
-        <v>130.2577021480075</v>
+        <v>643.152068443366</v>
       </c>
       <c r="E31" t="n">
-        <v>119.5765834774324</v>
+        <v>632.4709497727908</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9186108913401</v>
+        <v>622.8129771866984</v>
       </c>
       <c r="G31" t="n">
-        <v>77.46272786532086</v>
+        <v>590.3570941606795</v>
       </c>
       <c r="H31" t="n">
-        <v>50.82887196154341</v>
+        <v>563.7232382569021</v>
       </c>
       <c r="I31" t="n">
-        <v>31.0401651286561</v>
+        <v>543.9345314240145</v>
       </c>
       <c r="J31" t="n">
-        <v>73.11563542422292</v>
+        <v>586.0100017195812</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5698971276718</v>
+        <v>698.46426342303</v>
       </c>
       <c r="L31" t="n">
-        <v>347.3850807464569</v>
+        <v>860.279447041816</v>
       </c>
       <c r="M31" t="n">
-        <v>521.0741775497522</v>
+        <v>1033.968543845111</v>
       </c>
       <c r="N31" t="n">
-        <v>699.2660868162612</v>
+        <v>1212.16045311162</v>
       </c>
       <c r="O31" t="n">
-        <v>858.1064220622334</v>
+        <v>1371.000788357592</v>
       </c>
       <c r="P31" t="n">
-        <v>989.9132543455507</v>
+        <v>1502.80762064091</v>
       </c>
       <c r="Q31" t="n">
-        <v>1039.113890137446</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R31" t="n">
-        <v>997.2616313349508</v>
+        <v>1510.15599763031</v>
       </c>
       <c r="S31" t="n">
-        <v>908.2142142902314</v>
+        <v>1421.108580585591</v>
       </c>
       <c r="T31" t="n">
-        <v>815.1981190724723</v>
+        <v>1328.092485367831</v>
       </c>
       <c r="U31" t="n">
-        <v>663.2189532201583</v>
+        <v>1176.113319515518</v>
       </c>
       <c r="V31" t="n">
-        <v>545.7664399260896</v>
+        <v>1058.660806221449</v>
       </c>
       <c r="W31" t="n">
-        <v>393.5812448009472</v>
+        <v>906.4756110963062</v>
       </c>
       <c r="X31" t="n">
-        <v>302.8236688147479</v>
+        <v>815.7180351101066</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.2630645830357</v>
+        <v>732.1574308783945</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>965.3480352819672</v>
+        <v>816.1833435958357</v>
       </c>
       <c r="C32" t="n">
-        <v>821.7348613356276</v>
+        <v>672.5701696494962</v>
       </c>
       <c r="D32" t="n">
-        <v>688.8185057229491</v>
+        <v>672.5701696494962</v>
       </c>
       <c r="E32" t="n">
-        <v>528.3795961187769</v>
+        <v>512.131260045324</v>
       </c>
       <c r="F32" t="n">
-        <v>342.7430343232415</v>
+        <v>326.4946982497885</v>
       </c>
       <c r="G32" t="n">
-        <v>148.594662655561</v>
+        <v>132.346326582108</v>
       </c>
       <c r="H32" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="I32" t="n">
-        <v>43.53392552244429</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J32" t="n">
-        <v>252.5690201298679</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K32" t="n">
-        <v>355.5840260407903</v>
+        <v>134.0551710395785</v>
       </c>
       <c r="L32" t="n">
-        <v>535.6598776254489</v>
+        <v>314.1310226242371</v>
       </c>
       <c r="M32" t="n">
-        <v>752.635504888353</v>
+        <v>665.5689466538865</v>
       </c>
       <c r="N32" t="n">
-        <v>958.4900270955923</v>
+        <v>871.4234688611259</v>
       </c>
       <c r="O32" t="n">
-        <v>1178.879637987911</v>
+        <v>1241.483310072264</v>
       </c>
       <c r="P32" t="n">
-        <v>1268.539693279962</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="Q32" t="n">
-        <v>1479.513792126053</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R32" t="n">
         <v>1552.008256432805</v>
@@ -6734,16 +6734,16 @@
         <v>1523.473101540174</v>
       </c>
       <c r="V32" t="n">
-        <v>1523.473101540174</v>
+        <v>1417.759557190675</v>
       </c>
       <c r="W32" t="n">
-        <v>1396.053789264131</v>
+        <v>1290.340244914633</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.388521333757</v>
+        <v>1142.223829647625</v>
       </c>
       <c r="Y32" t="n">
-        <v>1126.598532352017</v>
+        <v>977.4338406658854</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.8818460454891</v>
+        <v>354.4276040710344</v>
       </c>
       <c r="C33" t="n">
-        <v>430.4288167643621</v>
+        <v>179.9745747899074</v>
       </c>
       <c r="D33" t="n">
-        <v>430.4288167643621</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E33" t="n">
-        <v>430.4288167643621</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F33" t="n">
-        <v>283.894258791247</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G33" t="n">
-        <v>145.1634333738625</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J33" t="n">
         <v>31.0401651286561</v>
@@ -6807,22 +6807,22 @@
         <v>1552.008256432805</v>
       </c>
       <c r="T33" t="n">
-        <v>1349.821661791571</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U33" t="n">
-        <v>1302.031609770387</v>
+        <v>1323.784638169194</v>
       </c>
       <c r="V33" t="n">
-        <v>1066.879501538644</v>
+        <v>1192.492096789791</v>
       </c>
       <c r="W33" t="n">
-        <v>812.6421448104429</v>
+        <v>938.254740061589</v>
       </c>
       <c r="X33" t="n">
-        <v>812.6421448104429</v>
+        <v>730.4032398560562</v>
       </c>
       <c r="Y33" t="n">
-        <v>604.8818460454891</v>
+        <v>522.6429410911023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="C34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="D34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="L34" t="n">
-        <v>89.55575367277781</v>
+        <v>58.35429013636907</v>
       </c>
       <c r="M34" t="n">
-        <v>128.743791865</v>
+        <v>97.54232832859125</v>
       </c>
       <c r="N34" t="n">
-        <v>172.4346425204363</v>
+        <v>141.2331789840276</v>
       </c>
       <c r="O34" t="n">
-        <v>196.7739191553356</v>
+        <v>165.5724556189269</v>
       </c>
       <c r="P34" t="n">
-        <v>196.7739191553356</v>
+        <v>165.5724556189269</v>
       </c>
       <c r="Q34" t="n">
         <v>196.7739191553356</v>
@@ -6901,7 +6901,7 @@
         <v>31.0401651286561</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.5062493785723</v>
+        <v>31.0401651286561</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>635.0360958553099</v>
+        <v>333.9457870231655</v>
       </c>
       <c r="C35" t="n">
-        <v>491.4229219089702</v>
+        <v>322.472202432653</v>
       </c>
       <c r="D35" t="n">
-        <v>491.4229219089702</v>
+        <v>322.472202432653</v>
       </c>
       <c r="E35" t="n">
-        <v>330.9840123047981</v>
+        <v>322.472202432653</v>
       </c>
       <c r="F35" t="n">
-        <v>330.9840123047981</v>
+        <v>136.8356406371176</v>
       </c>
       <c r="G35" t="n">
         <v>136.8356406371176</v>
@@ -6932,10 +6932,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6971,16 +6971,16 @@
         <v>935.5220006180048</v>
       </c>
       <c r="V35" t="n">
-        <v>829.8084562685062</v>
+        <v>935.5220006180048</v>
       </c>
       <c r="W35" t="n">
-        <v>829.8084562685062</v>
+        <v>808.1026883419627</v>
       </c>
       <c r="X35" t="n">
-        <v>829.8084562685062</v>
+        <v>659.9862730749549</v>
       </c>
       <c r="Y35" t="n">
-        <v>796.2865929253596</v>
+        <v>495.1962840932152</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>292.6418663608746</v>
+        <v>303.578078261085</v>
       </c>
       <c r="C36" t="n">
-        <v>292.6418663608746</v>
+        <v>303.578078261085</v>
       </c>
       <c r="D36" t="n">
-        <v>292.6418663608746</v>
+        <v>303.578078261085</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7050,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>726.0307720093547</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>500.4933665664074</v>
+        <v>471.793415281153</v>
       </c>
       <c r="X36" t="n">
-        <v>292.6418663608746</v>
+        <v>471.793415281153</v>
       </c>
       <c r="Y36" t="n">
-        <v>292.6418663608746</v>
+        <v>471.793415281153</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>50.48260664662145</v>
@@ -7138,7 +7138,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.74722736012892</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820.6726576508454</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="C38" t="n">
-        <v>677.0594837045057</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="D38" t="n">
-        <v>677.0594837045057</v>
+        <v>416.0603432114017</v>
       </c>
       <c r="E38" t="n">
-        <v>516.6205741003336</v>
+        <v>255.6214336072296</v>
       </c>
       <c r="F38" t="n">
-        <v>330.9840123047981</v>
+        <v>213.4295147778932</v>
       </c>
       <c r="G38" t="n">
-        <v>136.8356406371176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.2271958941299</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>710.2271958941299</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.5185981156682</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>961.1828802410973</v>
       </c>
       <c r="V39" t="n">
-        <v>422.6746479210065</v>
+        <v>726.0307720093547</v>
       </c>
       <c r="W39" t="n">
-        <v>386.2788968806221</v>
+        <v>697.1427582752251</v>
       </c>
       <c r="X39" t="n">
-        <v>386.2788968806221</v>
+        <v>489.2912580696923</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.5185981156682</v>
+        <v>489.2912580696923</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>184.0848481744266</v>
+        <v>963.1271065481707</v>
       </c>
       <c r="T40" t="n">
-        <v>179.1861210389214</v>
+        <v>958.2283794126655</v>
       </c>
       <c r="U40" t="n">
-        <v>115.3243232688613</v>
+        <v>894.3665816426054</v>
       </c>
       <c r="V40" t="n">
-        <v>85.98917805704652</v>
+        <v>865.0314364307906</v>
       </c>
       <c r="W40" t="n">
-        <v>21.92135101415797</v>
+        <v>800.963609387902</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="C41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="D41" t="n">
+        <v>715.6169182210276</v>
+      </c>
+      <c r="E41" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C41" t="n">
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>854.1046143121476</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>715.6169182210276</v>
       </c>
     </row>
     <row r="42">
@@ -7476,7 +7476,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F42" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.3004470215541</v>
+        <v>230.149562615232</v>
       </c>
       <c r="C43" t="n">
-        <v>156.7610658892307</v>
+        <v>176.6101814829085</v>
       </c>
       <c r="D43" t="n">
-        <v>122.0412282724784</v>
+        <v>141.8903438661563</v>
       </c>
       <c r="E43" t="n">
-        <v>122.0412282724784</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="F43" t="n">
-        <v>122.0412282724784</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="G43" t="n">
-        <v>67.75017213022478</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>60.90502305933459</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7594,25 @@
         <v>856.1496427492314</v>
       </c>
       <c r="S43" t="n">
-        <v>856.1496427492314</v>
+        <v>745.2670525882772</v>
       </c>
       <c r="T43" t="n">
-        <v>741.2983744152375</v>
+        <v>630.4157842542834</v>
       </c>
       <c r="U43" t="n">
-        <v>633.8283229168942</v>
+        <v>456.6014452857347</v>
       </c>
       <c r="V43" t="n">
-        <v>494.5406365065908</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="W43" t="n">
-        <v>494.5406365065908</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="X43" t="n">
-        <v>381.947887404157</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="Y43" t="n">
-        <v>276.5521100562103</v>
+        <v>296.4012256498882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7688,10 +7688,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>274.9611869810583</v>
+        <v>274.9611869810579</v>
       </c>
       <c r="C45" t="n">
-        <v>202.9502043934288</v>
+        <v>202.9502043934286</v>
       </c>
       <c r="D45" t="n">
-        <v>156.4578414256751</v>
+        <v>156.4578414256749</v>
       </c>
       <c r="E45" t="n">
-        <v>99.66243311371713</v>
+        <v>99.66243311371701</v>
       </c>
       <c r="F45" t="n">
-        <v>55.56992183409965</v>
+        <v>55.5699218340996</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7731,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>893.0818576548027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>793.3373097070663</v>
+        <v>961.7491260341823</v>
       </c>
       <c r="U45" t="n">
-        <v>667.5557381369529</v>
+        <v>835.9675544640689</v>
       </c>
       <c r="V45" t="n">
-        <v>667.5557381369529</v>
+        <v>703.2574929258238</v>
       </c>
       <c r="W45" t="n">
-        <v>515.7604281022487</v>
+        <v>551.4621828911198</v>
       </c>
       <c r="X45" t="n">
-        <v>410.3509745902135</v>
+        <v>446.0527293790847</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.0327225187571</v>
+        <v>340.7344773076284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7804,52 +7804,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>27.25900475900363</v>
+        <v>27.25900475900368</v>
       </c>
       <c r="K46" t="n">
-        <v>105.6156578156766</v>
+        <v>105.6156578156767</v>
       </c>
       <c r="L46" t="n">
-        <v>233.3332327876865</v>
+        <v>233.3332327876867</v>
       </c>
       <c r="M46" t="n">
-        <v>372.9247209442056</v>
+        <v>372.9247209442058</v>
       </c>
       <c r="N46" t="n">
-        <v>517.0190215639388</v>
+        <v>517.0190215639392</v>
       </c>
       <c r="O46" t="n">
-        <v>641.7617481631351</v>
+        <v>641.7617481631355</v>
       </c>
       <c r="P46" t="n">
-        <v>739.4709717996766</v>
+        <v>739.470971799677</v>
       </c>
       <c r="Q46" t="n">
-        <v>754.5739989447961</v>
+        <v>754.5739989447966</v>
       </c>
       <c r="R46" t="n">
-        <v>754.5739989447961</v>
+        <v>677.9318119239816</v>
       </c>
       <c r="S46" t="n">
-        <v>630.736653681756</v>
+        <v>636.9233971788626</v>
       </c>
       <c r="T46" t="n">
-        <v>502.9306302456763</v>
+        <v>636.9233971788626</v>
       </c>
       <c r="U46" t="n">
-        <v>316.1615361750416</v>
+        <v>450.154303108228</v>
       </c>
       <c r="V46" t="n">
-        <v>273.5020776980154</v>
+        <v>450.154303108228</v>
       </c>
       <c r="W46" t="n">
-        <v>86.5269543545523</v>
+        <v>263.179179764765</v>
       </c>
       <c r="X46" t="n">
-        <v>86.5269543545523</v>
+        <v>137.6316755602452</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.5269543545523</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>236.0112893083342</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>144.4396646861023</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,10 +8146,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.6880767567238</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -8225,10 +8225,10 @@
         <v>237.2222789689842</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P5" t="n">
         <v>238.109041496981</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
         <v>134.5615902069446</v>
@@ -8535,16 +8535,16 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8620,10 +8620,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.8663219311301</v>
+        <v>13.85203305347108</v>
       </c>
       <c r="C11" t="n">
         <v>237.4053720386571</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8155218883325</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.04856146225228</v>
+        <v>254.0628503399113</v>
       </c>
       <c r="F11" t="n">
         <v>279.008526009361</v>
@@ -23273,10 +23273,10 @@
         <v>287.4352177827846</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>211.6072823834167</v>
       </c>
       <c r="I11" t="n">
-        <v>82.60836983805547</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.00159820879924</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>81.1525498538949</v>
@@ -23312,19 +23312,19 @@
         <v>95.22832983178091</v>
       </c>
       <c r="U11" t="n">
-        <v>103.1591900228642</v>
+        <v>123.4781331754861</v>
       </c>
       <c r="V11" t="n">
-        <v>199.8847387377845</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.3734489850626</v>
       </c>
       <c r="X11" t="n">
-        <v>241.8635809461186</v>
+        <v>78.85984622032996</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.35613004604409</v>
+        <v>258.3704189237031</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>37.36209240031796</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.37930136627739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20.74795328586191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.56644291421873</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.88342376363293</v>
+        <v>40.12345962610831</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>34.35965277508913</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>158.6554786042406</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1.943351655479006</v>
       </c>
       <c r="C14" t="n">
-        <v>225.496690640665</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>214.9068404903404</v>
@@ -23513,7 +23513,7 @@
         <v>199.6986009854246</v>
       </c>
       <c r="I14" t="n">
-        <v>70.6996884400634</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.09291681080717</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.24386845590283</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>83.31964843378884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>111.569451777494</v>
       </c>
       <c r="V14" t="n">
-        <v>76.20073414431181</v>
+        <v>99.15015783659724</v>
       </c>
       <c r="W14" t="n">
         <v>209.4647675870705</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.447448648052017</v>
+        <v>246.4617375257111</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>200.7254086652094</v>
       </c>
       <c r="E17" t="n">
-        <v>227.9727371167882</v>
+        <v>222.638894045926</v>
       </c>
       <c r="F17" t="n">
         <v>252.9184127862379</v>
@@ -23783,22 +23783,22 @@
         <v>55.06243663077177</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>69.13821660865779</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>173.7946255146613</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>195.2833357619394</v>
       </c>
       <c r="X17" t="n">
         <v>215.7734677229955</v>
       </c>
       <c r="Y17" t="n">
-        <v>85.29308378507363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>228.776208708007</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>47.19602643401868</v>
       </c>
       <c r="D20" t="n">
         <v>200.7254086652094</v>
@@ -23981,10 +23981,10 @@
         <v>252.9184127862379</v>
       </c>
       <c r="G20" t="n">
-        <v>261.3451045596615</v>
+        <v>20.33081568200242</v>
       </c>
       <c r="H20" t="n">
-        <v>94.1496523761359</v>
+        <v>185.5171691602936</v>
       </c>
       <c r="I20" t="n">
         <v>56.51825661493234</v>
@@ -24017,25 +24017,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>55.06243663077177</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>97.38801995236292</v>
       </c>
       <c r="V20" t="n">
         <v>173.7946255146613</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>195.2833357619394</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>215.7734677229955</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.28030570058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>228.776208708007</v>
       </c>
       <c r="C23" t="n">
-        <v>211.315258815534</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>227.9727371167882</v>
       </c>
       <c r="F23" t="n">
-        <v>252.9184127862379</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>261.3451045596615</v>
+        <v>1.446242302282485</v>
       </c>
       <c r="H23" t="n">
-        <v>185.5171691602936</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>51.67127284385874</v>
+        <v>56.51825661493234</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,10 +24269,10 @@
         <v>195.2833357619394</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>215.7734677229955</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>232.28030570058</v>
       </c>
     </row>
     <row r="24">
@@ -24443,13 +24443,13 @@
         <v>247.7907126538537</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>230.3297627613807</v>
       </c>
       <c r="D26" t="n">
         <v>219.7399126110561</v>
       </c>
       <c r="E26" t="n">
-        <v>8.470796790134386</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>75.53276056077905</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>14.92598893152282</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.07694057661848</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>192.809129460508</v>
       </c>
       <c r="W26" t="n">
-        <v>214.2978397077862</v>
+        <v>5.909042683902072</v>
       </c>
       <c r="X26" t="n">
         <v>234.7879716688422</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>10.47791901330439</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.85071671018159</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>11.37279769687723</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>246.8741865007807</v>
+        <v>246.8741865007808</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>229.4132366083078</v>
       </c>
       <c r="D29" t="n">
-        <v>218.8233864579831</v>
+        <v>85.64685124365013</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790117</v>
       </c>
       <c r="G29" t="n">
-        <v>279.4430823524352</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61623440770606</v>
+        <v>74.61623440770614</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.00946277844983</v>
+        <v>14.00946277844992</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>73.16041442354557</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>87.23619440143159</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>115.4859977451367</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>125.5136020911027</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>233.8714455157692</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.3782834933537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>131.5871920565516</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>16.08585271271839</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24974,13 +24974,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>104.6564089060035</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>43.01663586326669</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25154,19 +25154,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>130.8181934622689</v>
       </c>
       <c r="D35" t="n">
         <v>131.5871920565516</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>158.8345205081304</v>
       </c>
       <c r="F35" t="n">
-        <v>183.7801961775801</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>192.2068879510037</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25211,16 +25211,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>104.6564089060035</v>
       </c>
       <c r="W35" t="n">
-        <v>126.1451191532817</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>146.6352511143377</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>129.9554443822071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.6873392181563</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>142.1770422068762</v>
       </c>
       <c r="D38" t="n">
-        <v>131.5871920565516</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>142.0101965365371</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>116.3789525516358</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,13 +25448,13 @@
         <v>28.24980334370514</v>
       </c>
       <c r="V38" t="n">
-        <v>104.6564089060035</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>126.1451191532817</v>
       </c>
       <c r="X38" t="n">
-        <v>146.6352511143377</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>163.1420890919222</v>
@@ -25628,19 +25628,19 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C41" t="n">
-        <v>10.01576911572084</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D41" t="n">
         <v>240.4402078430553</v>
       </c>
       <c r="E41" t="n">
-        <v>26.67324741697507</v>
+        <v>60.34369669024554</v>
       </c>
       <c r="F41" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G41" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H41" t="n">
         <v>225.2319683381395</v>
@@ -25679,19 +25679,19 @@
         <v>94.7772358086177</v>
       </c>
       <c r="T41" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W41" t="n">
-        <v>22.71274929634336</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X41" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y41" t="n">
         <v>271.9951048784259</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>31.17821424530361</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S43" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.68084459550336</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.63841168117955</v>
       </c>
       <c r="W43" t="n">
         <v>172.2801645589633</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.30192655925896</v>
+        <v>40.3019265592589</v>
       </c>
       <c r="C44" t="n">
-        <v>263.855265544445</v>
+        <v>263.8552655444449</v>
       </c>
       <c r="D44" t="n">
-        <v>253.2654153941204</v>
+        <v>253.2654153941203</v>
       </c>
       <c r="E44" t="n">
-        <v>39.49845496804016</v>
+        <v>280.5127438456992</v>
       </c>
       <c r="F44" t="n">
-        <v>64.44413063748982</v>
+        <v>64.44413063748976</v>
       </c>
       <c r="G44" t="n">
-        <v>101.5997256451304</v>
+        <v>313.8851112885724</v>
       </c>
       <c r="H44" t="n">
-        <v>238.0571758892046</v>
+        <v>238.0571758892045</v>
       </c>
       <c r="I44" t="n">
         <v>109.0582633438433</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>48.45149171458711</v>
+        <v>48.45149171458705</v>
       </c>
       <c r="S44" t="n">
-        <v>107.6024433596828</v>
+        <v>107.6024433596827</v>
       </c>
       <c r="T44" t="n">
-        <v>121.6782233375688</v>
+        <v>121.6782233375687</v>
       </c>
       <c r="U44" t="n">
         <v>149.9280266812739</v>
@@ -25925,13 +25925,13 @@
         <v>226.3346322435723</v>
       </c>
       <c r="W44" t="n">
-        <v>247.8233424908505</v>
+        <v>247.8233424908504</v>
       </c>
       <c r="X44" t="n">
-        <v>268.3134744519065</v>
+        <v>27.29918557424736</v>
       </c>
       <c r="Y44" t="n">
-        <v>284.820312429491</v>
+        <v>72.53492678604886</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.34473724098294</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>10.81781800993389</v>
+        <v>10.81781800993383</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>70.26554487727519</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>96.46215328656956</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>131.3829609228627</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.41435395537472</v>
+        <v>78.41435395537466</v>
       </c>
       <c r="C46" t="n">
-        <v>65.82919487206526</v>
+        <v>65.8291948720652</v>
       </c>
       <c r="D46" t="n">
-        <v>47.19784679164978</v>
+        <v>47.19784679164972</v>
       </c>
       <c r="E46" t="n">
-        <v>45.0163364200066</v>
+        <v>45.01633642000654</v>
       </c>
       <c r="F46" t="n">
-        <v>44.00342179636867</v>
+        <v>44.00342179636861</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.57335313189613</v>
       </c>
       <c r="H46" t="n">
-        <v>60.809546280877</v>
+        <v>60.80954628087694</v>
       </c>
       <c r="I46" t="n">
-        <v>54.03284870069571</v>
+        <v>54.03284870069565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.87576515060691</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.00064121274181</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>126.5279632017189</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4871532050095</v>
+        <v>150.7200170972654</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>124.2920291624746</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.1670271255322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>591332.3738443052</v>
+        <v>591332.3738443053</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604634.3931773152</v>
+        <v>604634.3931773154</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645475.3358794061</v>
+        <v>645475.3358794062</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>628432.2318381038</v>
+        <v>628432.2318381037</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664953.9304740633</v>
+        <v>664953.9304740631</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557666.3796740017</v>
+        <v>557666.3796740018</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820371.005199119</v>
+        <v>820371.0051991192</v>
       </c>
       <c r="C2" t="n">
         <v>820371.0051991189</v>
@@ -26320,37 +26320,37 @@
         <v>820371.0051991189</v>
       </c>
       <c r="E2" t="n">
-        <v>645978.8491230651</v>
+        <v>645978.8491230652</v>
       </c>
       <c r="F2" t="n">
-        <v>665718.679408376</v>
+        <v>665718.6794083759</v>
       </c>
       <c r="G2" t="n">
-        <v>683454.7051857236</v>
+        <v>683454.7051857235</v>
       </c>
       <c r="H2" t="n">
-        <v>683454.7051857235</v>
+        <v>683454.7051857241</v>
       </c>
       <c r="I2" t="n">
         <v>728860.9457716527</v>
       </c>
       <c r="J2" t="n">
-        <v>704445.1021403171</v>
+        <v>704445.1021403169</v>
       </c>
       <c r="K2" t="n">
-        <v>706136.8070499164</v>
+        <v>706136.8070499161</v>
       </c>
       <c r="L2" t="n">
         <v>809286.9955006496</v>
       </c>
       <c r="M2" t="n">
-        <v>763880.7549147208</v>
+        <v>763880.7549147203</v>
       </c>
       <c r="N2" t="n">
-        <v>763880.7549147202</v>
+        <v>763880.7549147201</v>
       </c>
       <c r="O2" t="n">
-        <v>620830.6871813047</v>
+        <v>620830.6871813046</v>
       </c>
       <c r="P2" t="n">
         <v>589630.2559620988</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2304.321077099562</v>
+        <v>2304.321077099536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>88881.48874124732</v>
       </c>
       <c r="K3" t="n">
-        <v>10260.16604085205</v>
+        <v>10260.16604085201</v>
       </c>
       <c r="L3" t="n">
-        <v>81134.10098125006</v>
+        <v>81134.10098125011</v>
       </c>
       <c r="M3" t="n">
         <v>21718.24520389866</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="C4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643669</v>
       </c>
       <c r="D4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="E4" t="n">
-        <v>269968.5839441325</v>
+        <v>271500.8386436163</v>
       </c>
       <c r="F4" t="n">
-        <v>281235.4291482921</v>
+        <v>282767.6838477758</v>
       </c>
       <c r="G4" t="n">
-        <v>291293.8639746615</v>
+        <v>292826.1186741452</v>
       </c>
       <c r="H4" t="n">
-        <v>291293.8639746614</v>
+        <v>292826.1186741452</v>
       </c>
       <c r="I4" t="n">
-        <v>310711.5489662723</v>
+        <v>312356.7752235027</v>
       </c>
       <c r="J4" t="n">
-        <v>296857.9622091393</v>
+        <v>298503.1884663698</v>
       </c>
       <c r="K4" t="n">
-        <v>297825.7943808223</v>
+        <v>299471.0206380527</v>
       </c>
       <c r="L4" t="n">
-        <v>356437.9553531733</v>
+        <v>358083.1816104038</v>
       </c>
       <c r="M4" t="n">
-        <v>337020.2703615625</v>
+        <v>338552.5250610463</v>
       </c>
       <c r="N4" t="n">
-        <v>337020.2703615625</v>
+        <v>338552.5250610462</v>
       </c>
       <c r="O4" t="n">
-        <v>255581.2046513035</v>
+        <v>257113.4593507872</v>
       </c>
       <c r="P4" t="n">
-        <v>237741.3630641982</v>
+        <v>239273.617763682</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>34935.05941048896</v>
       </c>
       <c r="K5" t="n">
-        <v>35012.11084765165</v>
+        <v>35012.11084765164</v>
       </c>
       <c r="L5" t="n">
         <v>42345.97047478559</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381501.6641985836</v>
+        <v>380499.1392765568</v>
       </c>
       <c r="C6" t="n">
-        <v>383805.985275683</v>
+        <v>382803.4603536559</v>
       </c>
       <c r="D6" t="n">
-        <v>383805.9852756831</v>
+        <v>382803.460353656</v>
       </c>
       <c r="E6" t="n">
-        <v>178404.3577538667</v>
+        <v>176872.103054383</v>
       </c>
       <c r="F6" t="n">
-        <v>348551.7909251018</v>
+        <v>347019.536225618</v>
       </c>
       <c r="G6" t="n">
-        <v>353218.9627422619</v>
+        <v>351686.7080427781</v>
       </c>
       <c r="H6" t="n">
-        <v>364564.1082023667</v>
+        <v>363031.8535028835</v>
       </c>
       <c r="I6" t="n">
-        <v>342528.6708855871</v>
+        <v>340883.4446283567</v>
       </c>
       <c r="J6" t="n">
-        <v>283770.5917794416</v>
+        <v>282125.3655222108</v>
       </c>
       <c r="K6" t="n">
-        <v>363038.7357805903</v>
+        <v>361393.5095233598</v>
       </c>
       <c r="L6" t="n">
-        <v>329368.9686914406</v>
+        <v>327723.74243421</v>
       </c>
       <c r="M6" t="n">
-        <v>371733.125608491</v>
+        <v>370200.8709090067</v>
       </c>
       <c r="N6" t="n">
-        <v>393451.3708123891</v>
+        <v>391919.1161129052</v>
       </c>
       <c r="O6" t="n">
-        <v>340991.5329733882</v>
+        <v>339459.2782739043</v>
       </c>
       <c r="P6" t="n">
-        <v>328709.1457148981</v>
+        <v>327176.8910154143</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>134.9431290096269</v>
       </c>
       <c r="K2" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L2" t="n">
         <v>223.0958495641314</v>
@@ -26932,7 +26932,7 @@
         <v>108.8530157865037</v>
       </c>
       <c r="K2" t="n">
-        <v>12.82520755106506</v>
+        <v>12.82520755106501</v>
       </c>
       <c r="L2" t="n">
         <v>101.4176262265626</v>
@@ -27169,7 +27169,7 @@
         <v>108.8530157865037</v>
       </c>
       <c r="P2" t="n">
-        <v>12.82520755106506</v>
+        <v>12.82520755106501</v>
       </c>
     </row>
     <row r="3">
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.8069958789715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>379.3618929143421</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>161.2233538868258</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>152.3352506923594</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27515,13 +27515,13 @@
         <v>219.0653363392634</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>16.21307073658342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>279.4429836147795</v>
       </c>
       <c r="V4" t="n">
-        <v>248.8026629696351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.892868265313084</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>321.6958373808355</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27704,19 +27704,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.84800438960156</v>
+        <v>94.1014130633437</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>161.1149336167473</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.6774205741812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>347.8069958789715</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>204.4194684811065</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U9" t="n">
-        <v>220.6315523179333</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.82706289750146</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>173.9584110229765</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -28184,7 +28184,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="H12" t="n">
-        <v>35.27236097774286</v>
+        <v>62.98204655745016</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>127.8675197323504</v>
@@ -28235,7 +28235,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.8675197323504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28418,16 +28418,16 @@
         <v>139.7762011303425</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>139.7762011303425</v>
@@ -28466,13 +28466,13 @@
         <v>139.7762011303425</v>
       </c>
       <c r="W15" t="n">
-        <v>88.14141913199168</v>
+        <v>22.66838790132024</v>
       </c>
       <c r="X15" t="n">
         <v>139.7762011303425</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
     </row>
     <row r="16">
@@ -28521,10 +28521,10 @@
         <v>139.7762011303425</v>
       </c>
       <c r="O16" t="n">
+        <v>44.50674994640595</v>
+      </c>
+      <c r="P16" t="n">
         <v>139.7762011303425</v>
-      </c>
-      <c r="P16" t="n">
-        <v>44.506749946406</v>
       </c>
       <c r="Q16" t="n">
         <v>139.7762011303425</v>
@@ -28643,10 +28643,10 @@
         <v>153.9576329554736</v>
       </c>
       <c r="C18" t="n">
-        <v>153.9576329554736</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>153.9576329554736</v>
@@ -28661,10 +28661,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>13.19244734819547</v>
       </c>
       <c r="S18" t="n">
         <v>153.9576329554736</v>
@@ -28697,16 +28697,16 @@
         <v>153.9576329554736</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>153.9576329554736</v>
       </c>
-      <c r="V18" t="n">
-        <v>115.1065759072467</v>
-      </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="Y18" t="n">
         <v>153.9576329554736</v>
@@ -28743,25 +28743,25 @@
         <v>153.9576329554736</v>
       </c>
       <c r="J19" t="n">
+        <v>93.35918011667277</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>81.80796764053406</v>
+      </c>
+      <c r="N19" t="n">
         <v>153.9576329554736</v>
-      </c>
-      <c r="K19" t="n">
-        <v>153.9576329554736</v>
-      </c>
-      <c r="L19" t="n">
-        <v>153.9576329554736</v>
-      </c>
-      <c r="M19" t="n">
-        <v>40.75756589250963</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>153.9576329554736</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="Q19" t="n">
         <v>153.9576329554736</v>
@@ -28883,22 +28883,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>51.59125819810116</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>153.9576329554736</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>104.2584361795608</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28934,13 +28934,13 @@
         <v>153.9576329554736</v>
       </c>
       <c r="U21" t="n">
-        <v>153.9576329554736</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>153.9576329554736</v>
       </c>
       <c r="W21" t="n">
-        <v>153.9576329554736</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>153.9576329554736</v>
@@ -28962,10 +28962,10 @@
         <v>153.9576329554736</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28980,28 +28980,28 @@
         <v>153.9576329554736</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="M22" t="n">
         <v>153.9576329554736</v>
       </c>
       <c r="N22" t="n">
+        <v>8.343684555567528</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>153.9576329554736</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>153.9576329554736</v>
-      </c>
-      <c r="P22" t="n">
-        <v>149.6035573443133</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>153.9576329554736</v>
@@ -29065,25 +29065,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>132.088591401046</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>128.0000763867218</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>153.9576329554736</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>153.9576329554736</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="S23" t="n">
         <v>153.9576329554736</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>153.9576329554736</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>153.9576329554736</v>
@@ -29123,22 +29123,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>153.9576329554736</v>
+        <v>114.2654005973703</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>153.9576329554736</v>
@@ -29174,16 +29174,16 @@
         <v>153.9576329554736</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>153.9576329554736</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>45.9144861111601</v>
       </c>
     </row>
     <row r="25">
@@ -29199,13 +29199,13 @@
         <v>153.9576329554736</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="G25" t="n">
         <v>153.9576329554736</v>
@@ -29220,22 +29220,22 @@
         <v>153.9576329554736</v>
       </c>
       <c r="K25" t="n">
-        <v>43.47900662761612</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>153.9576329554736</v>
       </c>
       <c r="N25" t="n">
-        <v>153.9576329554736</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>153.9576329554736</v>
+        <v>19.35515071380176</v>
       </c>
       <c r="P25" t="n">
-        <v>153.9576329554736</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>153.9576329554736</v>
@@ -29302,19 +29302,19 @@
         <v>134.9431290096269</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>64.1796734435039</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>134.9431290096269</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>64.17967344350399</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>134.9431290096269</v>
@@ -29354,13 +29354,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>134.9431290096269</v>
       </c>
       <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>134.9431290096269</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>134.9431290096269</v>
@@ -29369,13 +29369,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>134.9431290096269</v>
       </c>
       <c r="T27" t="n">
-        <v>82.36022216357922</v>
+        <v>134.9431290096269</v>
       </c>
       <c r="U27" t="n">
-        <v>134.9431290096269</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>134.9431290096269</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>134.9431290096269</v>
+        <v>71.02920340598385</v>
       </c>
       <c r="X27" t="n">
         <v>134.9431290096269</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>60.51356883121204</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>50.52286961666718</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N29" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E30" t="n">
-        <v>64.6135203344726</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,25 +29639,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>130.3859422596854</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="M31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="O31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="P31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="32">
@@ -29767,34 +29767,34 @@
         <v>223.0958495641314</v>
       </c>
       <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>135.8205017845912</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>71.91379873704145</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>223.0958495641314</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>223.0958495641314</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -29825,31 +29825,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,19 +29879,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>178.6292305800029</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>102.8209711838158</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>49.27492544860259</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>117.6786730864507</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -29973,7 +29973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -30071,16 +30071,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>22.00691837567913</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30122,13 +30122,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="W36" t="n">
-        <v>28.41295177240184</v>
-      </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>206.837413804657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30168,7 +30168,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>53.78612166063914</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="Y37" t="n">
-        <v>223.0958495641314</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.88067197567818</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -30320,10 +30320,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="W39" t="n">
-        <v>215.6631896309391</v>
-      </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>211.3486100166936</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30426,7 +30426,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>208.8100212119257</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>223.0958495641314</v>
@@ -34705,16 +34705,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>6.598225711743296</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,10 +34866,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O4" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,10 +34945,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
@@ -35255,16 +35255,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35817,10 +35817,10 @@
         <v>183.9083735095711</v>
       </c>
       <c r="O16" t="n">
-        <v>164.3613290443822</v>
+        <v>69.09187786044562</v>
       </c>
       <c r="P16" t="n">
-        <v>41.78530921129949</v>
+        <v>137.054760395236</v>
       </c>
       <c r="Q16" t="n">
         <v>53.61415787864813</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,7 +35972,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.5984528388008</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>131.6881411295907</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>181.5476582157897</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>80.34144285435022</v>
+        <v>121.3918446023746</v>
       </c>
       <c r="N19" t="n">
-        <v>44.13217237922859</v>
+        <v>198.0898053347022</v>
       </c>
       <c r="O19" t="n">
         <v>178.5427608695132</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>151.2361922203671</v>
       </c>
       <c r="Q19" t="n">
         <v>67.79558970377919</v>
@@ -36203,22 +36203,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,10 +36258,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5.342159937261215</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7.5236703089044</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>60.5984528388008</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>181.5476582157897</v>
       </c>
       <c r="M22" t="n">
         <v>193.5415099173142</v>
       </c>
       <c r="N22" t="n">
-        <v>198.0898053347022</v>
+        <v>52.47585693479612</v>
       </c>
       <c r="O22" t="n">
-        <v>178.5427608695132</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P22" t="n">
-        <v>146.8821166092068</v>
+        <v>151.2361922203671</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.79558970377919</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>313.9833909815092</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>373.1249332210333</v>
+        <v>347.1673766522815</v>
       </c>
       <c r="N23" t="n">
-        <v>361.8914937708668</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>304.6596027965322</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>244.5233453716867</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.088515014323889</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36495,13 +36495,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.342159937261215</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7.5236703089044</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.536584932542326</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>60.5984528388008</v>
       </c>
       <c r="K25" t="n">
-        <v>21.20951480173327</v>
+        <v>131.6881411295907</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>181.5476582157897</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>193.5415099173142</v>
       </c>
       <c r="N25" t="n">
-        <v>198.0898053347022</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O25" t="n">
-        <v>178.5427608695132</v>
+        <v>43.94027862784143</v>
       </c>
       <c r="P25" t="n">
-        <v>151.2361922203671</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>67.79558970377919</v>
@@ -36598,19 +36598,19 @@
         <v>238.9986905358111</v>
       </c>
       <c r="L26" t="n">
-        <v>316.8379285900901</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>283.3469737090637</v>
       </c>
       <c r="N26" t="n">
-        <v>272.1135342588972</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>225.50884142584</v>
       </c>
       <c r="Q26" t="n">
         <v>124.9524297950821</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9103658080873</v>
+        <v>123.9103658080872</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>164.5691303573962</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>269.6901698822269</v>
+        <v>355.0269554282595</v>
       </c>
       <c r="N29" t="n">
-        <v>343.7935159780931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>286.5616250037585</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>226.425367578913</v>
+        <v>226.4253675789129</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>125.868955948155</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.50047504602708</v>
+        <v>42.50047504602699</v>
       </c>
       <c r="K31" t="n">
-        <v>113.590163336817</v>
+        <v>113.5901633368169</v>
       </c>
       <c r="L31" t="n">
-        <v>163.449680423016</v>
+        <v>163.4496804230159</v>
       </c>
       <c r="M31" t="n">
         <v>175.4435321245404</v>
@@ -37002,13 +37002,13 @@
         <v>179.9918275419284</v>
       </c>
       <c r="O31" t="n">
-        <v>160.4447830767395</v>
+        <v>160.4447830767394</v>
       </c>
       <c r="P31" t="n">
         <v>133.1382144275933</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.69761191100547</v>
+        <v>49.69761191100538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.61995999372544</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.1465602095188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37075,22 +37075,22 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>354.987802050151</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>222.6157685781001</v>
+        <v>373.79781940519</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>313.6615619803445</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.1051503495866</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.22673162298167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>27.00543362271974</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>27.59002526031614</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37269,7 +37269,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.511196212036566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.00543362271972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>31.51662983475629</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.511196212036566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>31.51662983475627</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.0584461098898</v>
+        <v>8.058446109889857</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14813440067972</v>
+        <v>79.14813440067978</v>
       </c>
       <c r="L46" t="n">
-        <v>129.0076514868787</v>
+        <v>129.0076514868788</v>
       </c>
       <c r="M46" t="n">
-        <v>141.0015031884031</v>
+        <v>141.0015031884032</v>
       </c>
       <c r="N46" t="n">
         <v>145.5497986057912</v>
       </c>
       <c r="O46" t="n">
-        <v>126.0027541406022</v>
+        <v>126.0027541406023</v>
       </c>
       <c r="P46" t="n">
-        <v>98.69618549145606</v>
+        <v>98.69618549145612</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.25558297486819</v>
+        <v>15.25558297486825</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
